--- a/인증과제/PreFinal/AA인증과제-평가지-한민수 (1).xlsx
+++ b/인증과제/PreFinal/AA인증과제-평가지-한민수 (1).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CA5FA9-C133-40FC-9691-7CF80DE24FE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB475DB-0C60-4777-ACB9-809217BB7763}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14290" windowHeight="9420" tabRatio="645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -1142,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1152,7 +1152,7 @@
     <col min="2" max="2" width="16.75" customWidth="1"/>
     <col min="3" max="3" width="9.08203125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="74.25" customWidth="1"/>
+    <col min="5" max="5" width="157.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
